--- a/src/test/resources/excelTests/suppliers.xlsx
+++ b/src/test/resources/excelTests/suppliers.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>weq</t>
+  </si>
+  <si>
+    <t>TEST1 SUP</t>
+  </si>
+  <si>
+    <t>TEST2 SUP</t>
+  </si>
+  <si>
+    <t>OL</t>
   </si>
 </sst>
 </file>
@@ -622,7 +631,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
@@ -853,38 +862,52 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="C9" s="2">
+        <v>535353</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2">
+        <v>656565</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="H10" s="2" t="s">
         <v>36</v>
       </c>
@@ -893,46 +916,86 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2">
-        <v>555003</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>25</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="2" t="b">
-        <v>1</v>
+      <c r="I11" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="2">
+      <c r="C12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
+        <v>555003</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
         <v>7777772</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2" t="b">
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="b">
         <v>1</v>
       </c>
     </row>

--- a/src/test/resources/excelTests/suppliers.xlsx
+++ b/src/test/resources/excelTests/suppliers.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
-    <sheet name="REFERENCES" sheetId="1" r:id="rId1"/>
+    <sheet name="SUPPLIERS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">REFERENCES!$A$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SUPPLIERS!$A$2:$I$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -193,6 +193,8 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
